--- a/submit_cgap/tests/data/cgap_submit_test.xlsx
+++ b/submit_cgap/tests/data/cgap_submit_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/cgap-portal/src/encoded/tests/data/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drioux/CGAP/SubmitCGAP/submit_cgap/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896E8EB2-B3B0-6241-A958-B22D0B0DA377}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8973F86-DBD3-E449-A27F-50A4A3FC63B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="3500" windowWidth="32060" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
+    <workbookView xWindow="0" yWindow="3140" windowWidth="28800" windowHeight="14860" xr2:uid="{FB0E66EA-1423-4875-8AFB-50DDC911B1EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Accession data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>Other ID</t>
   </si>
@@ -300,13 +300,10 @@
     <t>Files</t>
   </si>
   <si>
-    <t>f1.fastq.gz, f2.fastq.gz</t>
-  </si>
-  <si>
-    <t>f3.fastq.gz</t>
-  </si>
-  <si>
-    <t>f4.fastq.gz</t>
+    <t>f1_R1.fastq.gz, f1_R2.fastq.gz</t>
+  </si>
+  <si>
+    <t>f2_R1.fastq.gz, f2_R2.fastq.gz</t>
   </si>
 </sst>
 </file>
@@ -563,6 +560,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,11 +580,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23985C4D-01B8-468F-8F7A-3E2DDE3ABF1C}">
   <dimension ref="A1:CB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -937,54 +934,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:80" s="5" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="33" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36" t="s">
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="35"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
       <c r="AO1" s="25"/>
       <c r="AP1" s="25"/>
       <c r="AQ1" s="25"/>
@@ -1141,7 +1138,7 @@
       <c r="AL2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" s="38" t="s">
+      <c r="AM2" s="33" t="s">
         <v>83</v>
       </c>
       <c r="AN2" s="3" t="s">
@@ -1294,7 +1291,7 @@
       <c r="AL3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AM3" s="39"/>
+      <c r="AM3" s="34"/>
       <c r="AO3" s="12"/>
       <c r="AP3" s="12"/>
       <c r="AQ3" s="12"/>
@@ -1420,7 +1417,7 @@
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="24"/>
-      <c r="AM4" s="40"/>
+      <c r="AM4" s="35"/>
       <c r="AN4" s="8" t="s">
         <v>91</v>
       </c>
@@ -1586,9 +1583,6 @@
       </c>
       <c r="AH6" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
